--- a/Original/Tables/NewTU_Eras_ORG.xlsx
+++ b/Original/Tables/NewTU_Eras_ORG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\TABLES NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodionov\YandexDisk\Very New Terra Ultima 23-24\Python\NEW24\CivV_DatabaseConverter\Original\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="NewEraVOs" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Eras!$A$1:$AU$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Eras!$B$1:$AV$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="238">
   <si>
     <t>ID</t>
   </si>
@@ -741,13 +741,16 @@
   </si>
   <si>
     <t>VOScript</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,13 +773,27 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -840,12 +857,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -881,6 +895,40 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,1137 +1210,1181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU9"/>
+  <dimension ref="A1:AV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B9"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
-    <col min="12" max="47" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13" max="48" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="9" customFormat="1" ht="158.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:48" s="8" customFormat="1" ht="158.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AN1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AS1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AV1" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:48" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:48" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="22">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L3" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="1">
+      <c r="Q3" s="22">
+        <v>100</v>
+      </c>
+      <c r="R3" s="22">
         <v>3</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S3" s="22">
         <v>1</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T3" s="22">
         <v>1</v>
       </c>
-      <c r="AA2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AM2" s="1">
+      <c r="AB3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AH3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AI3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AJ3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AK3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AN3" s="22">
         <v>1</v>
       </c>
-      <c r="AP2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AS2" s="1">
+      <c r="AQ3" s="22">
+        <v>100</v>
+      </c>
+      <c r="AT3" s="22">
         <v>300</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AU3" s="22">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="4" spans="1:48" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q4" s="22">
         <v>150</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R4" s="22">
         <v>4</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S4" s="22">
         <v>1</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T4" s="22">
         <v>1</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U4" s="22">
         <v>1</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V4" s="22">
         <v>1</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W4" s="22">
         <v>10</v>
       </c>
-      <c r="W3" s="1">
-        <v>100</v>
-      </c>
-      <c r="Z3" s="1">
+      <c r="X4" s="22">
+        <v>100</v>
+      </c>
+      <c r="AA4" s="22">
         <v>10</v>
       </c>
-      <c r="AA3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC3" s="1">
+      <c r="AB4" s="22">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="22">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="22">
         <v>80</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AE4" s="22">
         <v>85</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF4" s="22">
         <v>85</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AG4" s="22">
         <v>67</v>
       </c>
-      <c r="AG3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AK3" s="1">
+      <c r="AH4" s="22">
+        <v>100</v>
+      </c>
+      <c r="AI4" s="22">
+        <v>100</v>
+      </c>
+      <c r="AJ4" s="22">
+        <v>100</v>
+      </c>
+      <c r="AK4" s="22">
+        <v>100</v>
+      </c>
+      <c r="AL4" s="22">
         <v>50</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM4" s="22">
         <v>50</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AN4" s="22">
         <v>2</v>
       </c>
-      <c r="AP3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AQ3" s="1">
+      <c r="AQ4" s="22">
+        <v>100</v>
+      </c>
+      <c r="AR4" s="22">
         <v>2</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AT4" s="22">
         <v>300</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AU4" s="22">
         <v>60</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AV4" s="22">
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="5" spans="1:48" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M5" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q5" s="22">
         <v>200</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R5" s="22">
         <v>6</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S5" s="22">
         <v>2</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T5" s="22">
         <v>2</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U5" s="22">
         <v>1</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V5" s="22">
         <v>1</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W5" s="22">
         <v>25</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X5" s="22">
         <v>200</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA5" s="22">
         <v>25</v>
       </c>
-      <c r="AA4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AC4" s="1">
+      <c r="AB5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="22">
         <v>67</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE5" s="22">
         <v>75</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF5" s="22">
         <v>75</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG5" s="22">
         <v>50</v>
       </c>
-      <c r="AG4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AM4" s="1">
+      <c r="AH5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AI5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AJ5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AK5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AL5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AM5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AN5" s="22">
         <v>4</v>
       </c>
-      <c r="AP4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AQ4" s="1">
+      <c r="AQ5" s="22">
+        <v>100</v>
+      </c>
+      <c r="AR5" s="22">
         <v>5</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AT5" s="22">
         <v>300</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AU5" s="22">
         <v>70</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AV5" s="22">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="6" spans="1:48" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E6" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G6" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K6" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M6" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q6" s="22">
         <v>250</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R6" s="22">
         <v>8</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S6" s="22">
         <v>2</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T6" s="22">
         <v>2</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U6" s="22">
         <v>1</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V6" s="22">
         <v>1</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W6" s="22">
         <v>50</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X6" s="22">
         <v>300</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y6" s="22">
         <v>1</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA6" s="22">
         <v>37</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AB6" s="22">
         <v>75</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC6" s="22">
         <v>90</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AD6" s="22">
         <v>50</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE6" s="22">
         <v>55</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF6" s="22">
         <v>55</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG6" s="22">
         <v>33</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH6" s="22">
         <v>90</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI6" s="22">
         <v>90</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ6" s="22">
         <v>90</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK6" s="22">
         <v>90</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL6" s="22">
         <v>150</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM6" s="22">
         <v>150</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AN6" s="22">
         <v>4</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AP6" s="22">
         <v>1</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ6" s="22">
         <v>150</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AR6" s="22">
         <v>5</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AT6" s="22">
         <v>300</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AU6" s="22">
         <v>80</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AV6" s="22">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="7" spans="1:48" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E7" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F7" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G7" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K7" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L7" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M7" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N7" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O7" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q7" s="22">
         <v>300</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R7" s="22">
         <v>10</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S7" s="22">
         <v>3</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T7" s="22">
         <v>3</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U7" s="22">
         <v>2</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V7" s="22">
         <v>2</v>
       </c>
-      <c r="V6" s="1">
-        <v>100</v>
-      </c>
-      <c r="W6" s="1">
+      <c r="W7" s="22">
+        <v>100</v>
+      </c>
+      <c r="X7" s="22">
         <v>400</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y7" s="22">
         <v>2</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA7" s="22">
         <v>50</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AB7" s="22">
         <v>60</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC7" s="22">
         <v>75</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD7" s="22">
         <v>33</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE7" s="22">
         <v>37</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF7" s="22">
         <v>37</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG7" s="22">
         <v>20</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH7" s="22">
         <v>80</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI7" s="22">
         <v>80</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AJ7" s="22">
         <v>80</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK7" s="22">
         <v>80</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL7" s="22">
         <v>200</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM7" s="22">
         <v>200</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AN7" s="22">
         <v>6</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AO7" s="22">
         <v>1</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AQ7" s="22">
         <v>200</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AR7" s="22">
         <v>2</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AS7" s="22">
         <v>7</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AT7" s="22">
         <v>200</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AU7" s="22">
         <v>90</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AV7" s="22">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="8" spans="1:48" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D8" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E8" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F8" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G8" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K8" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O8" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q8" s="22">
         <v>350</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R8" s="22">
         <v>13</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S8" s="22">
         <v>3</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T8" s="22">
         <v>3</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U8" s="22">
         <v>2</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V8" s="22">
         <v>2</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W8" s="22">
         <v>200</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X8" s="22">
         <v>500</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y8" s="22">
         <v>3</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA8" s="22">
         <v>65</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AB8" s="22">
         <v>50</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AC8" s="22">
         <v>60</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AD8" s="22">
         <v>25</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AE8" s="22">
         <v>30</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF8" s="22">
         <v>30</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG8" s="22">
         <v>12</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH8" s="22">
         <v>70</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI8" s="22">
         <v>70</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AJ8" s="22">
         <v>70</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AK8" s="22">
         <v>70</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AL8" s="22">
         <v>250</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AM8" s="22">
         <v>250</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AN8" s="22">
         <v>8</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AO8" s="22">
         <v>1</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AQ8" s="22">
         <v>300</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AR8" s="22">
         <v>0</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AS8" s="22">
         <v>9</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AT8" s="22">
         <v>200</v>
       </c>
-      <c r="AT7" s="1">
-        <v>100</v>
-      </c>
-      <c r="AU7" s="1">
+      <c r="AU8" s="22">
+        <v>100</v>
+      </c>
+      <c r="AV8" s="22">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="9" spans="1:48" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F9" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G9" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H9" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="K9" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L9" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q9" s="22">
         <v>400</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R9" s="22">
         <v>16</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S9" s="22">
         <v>3</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T9" s="22">
         <v>3</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U9" s="22">
         <v>2</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V9" s="22">
         <v>2</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W9" s="22">
         <v>200</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X9" s="22">
         <v>500</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y9" s="22">
         <v>3</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA9" s="22">
         <v>65</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AB9" s="22">
         <v>50</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AC9" s="22">
         <v>60</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AD9" s="22">
         <v>25</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AE9" s="22">
         <v>30</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF9" s="22">
         <v>30</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG9" s="22">
         <v>12</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH9" s="22">
         <v>70</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI9" s="22">
         <v>70</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AJ9" s="22">
         <v>70</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK9" s="22">
         <v>70</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AL9" s="22">
         <v>300</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM9" s="22">
         <v>300</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AN9" s="22">
         <v>8</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AO9" s="22">
         <v>1</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AQ9" s="22">
         <v>400</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AR9" s="22">
         <v>0</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AS9" s="22">
         <v>9</v>
       </c>
-      <c r="AS8" s="1">
-        <v>100</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>100</v>
-      </c>
-      <c r="AU8" s="1">
+      <c r="AT9" s="22">
+        <v>100</v>
+      </c>
+      <c r="AU9" s="22">
+        <v>100</v>
+      </c>
+      <c r="AV9" s="22">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="10" spans="1:48" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D10" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G10" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H10" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="K10" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L10" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M10" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N10" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O10" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q10" s="22">
         <v>450</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R10" s="22">
         <v>20</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S10" s="22">
         <v>3</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T10" s="22">
         <v>3</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U10" s="22">
         <v>3</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V10" s="22">
         <v>2</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W10" s="22">
         <v>400</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X10" s="22">
         <v>600</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y10" s="22">
         <v>4</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA10" s="22">
         <v>80</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AB10" s="22">
         <v>40</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC10" s="22">
         <v>50</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AD10" s="22">
         <v>18</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE10" s="22">
         <v>21</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF10" s="22">
         <v>21</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG10" s="22">
         <v>5</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH10" s="22">
         <v>60</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI10" s="22">
         <v>60</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ10" s="22">
         <v>60</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK10" s="22">
         <v>60</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AL10" s="22">
         <v>350</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM10" s="22">
         <v>350</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN10" s="22">
         <v>10</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AO10" s="22">
         <v>1</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AQ10" s="22">
         <v>500</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AR10" s="22">
         <v>0</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AS10" s="22">
         <v>7</v>
       </c>
-      <c r="AS9" s="1">
-        <v>100</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>100</v>
-      </c>
-      <c r="AU9" s="1">
+      <c r="AT10" s="22">
+        <v>100</v>
+      </c>
+      <c r="AU10" s="22">
+        <v>100</v>
+      </c>
+      <c r="AV10" s="22">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU1"/>
+  <autoFilter ref="B1:AV1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2300,487 +2392,503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="10.7109375" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:21" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O8" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O10" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2791,7 +2899,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2803,135 +2911,140 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="22" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="22" width="10.7109375" style="2" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="29" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2942,7 +3055,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2954,151 +3067,152 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="22" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="22" width="10.7109375" style="2" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>235</v>
       </c>
     </row>

--- a/Original/Tables/NewTU_Eras_ORG.xlsx
+++ b/Original/Tables/NewTU_Eras_ORG.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="240">
   <si>
     <t>ID</t>
   </si>
@@ -744,13 +744,19 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>CitySizeType</t>
+  </si>
+  <si>
+    <t>SoundscapeScript</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,8 +787,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +805,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -928,7 +947,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,7 +1241,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2918,23 +2943,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="30" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C2" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
@@ -3050,6 +3084,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3061,7 +3096,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3075,19 +3110,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="30" t="s">
         <v>236</v>
       </c>
     </row>
